--- a/0OCTAVO0/Data mining/minning/bayes/dataset-input_tenis.xlsx
+++ b/0OCTAVO0/Data mining/minning/bayes/dataset-input_tenis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\chris\Documents\0ESCUELA0\octavo\0OCTAVO0\Data mining\minning\bayes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documentos\octavo\0OCTAVO0\Data mining\minning\bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1079A-9251-4DDF-AC9D-2844FDA8E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE1EE1-C788-441C-891C-E20676C729C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-99" yWindow="-99" windowWidth="21303" windowHeight="11344" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
     <sheet name="prediccion" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -396,17 +397,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -423,7 +424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -440,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -457,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -474,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -491,7 +492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -508,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -525,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -542,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -559,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -576,7 +577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -593,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -610,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -627,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -644,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -674,12 +675,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -693,7 +694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -707,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -721,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -735,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -752,4 +753,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D5A8C2-2AED-4C82-BA84-5FCFE9A30B3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>